--- a/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/03.XNBH/XNBH_.xlsx
+++ b/4.Workspace/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2025/Thang5/03.XNBH/XNBH_.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2024\Thang1\05.XNBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VNET\4.Workspace\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2025\Thang5\03.XNBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496FC1D2-F189-4424-93B8-43BA679D1E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="10320" windowHeight="8115"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +18,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$23</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t xml:space="preserve">STT </t>
   </si>
@@ -71,9 +72,6 @@
     <t>Trần Thị Thu Hà</t>
   </si>
   <si>
-    <t>Nguyễn Thị Hoa</t>
-  </si>
-  <si>
     <t>TP.KTTH</t>
   </si>
   <si>
@@ -104,24 +102,6 @@
     <t>Số điện thoại:</t>
   </si>
   <si>
-    <t>Lỗi phần cứng</t>
-  </si>
-  <si>
-    <t>Người đại diện: Đại lý Gia Thành</t>
-  </si>
-  <si>
-    <t>Anten GPS VNSH01</t>
-  </si>
-  <si>
-    <t>SL: 2</t>
-  </si>
-  <si>
-    <t>Đổi thiết bị mới</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hà Nội, ngày 02 tháng 01 Năm 2024</t>
-  </si>
-  <si>
     <t>TP. PT Sản Phẩm</t>
   </si>
   <si>
@@ -131,16 +111,52 @@
     <t>Nguyễn Minh Tùng</t>
   </si>
   <si>
-    <t>Anten GPS chốt rất chậm</t>
-  </si>
-  <si>
     <t>Người Lập</t>
+  </si>
+  <si>
+    <t>VNSH02</t>
+  </si>
+  <si>
+    <t>0032006FA2</t>
+  </si>
+  <si>
+    <t>0032009366</t>
+  </si>
+  <si>
+    <t>Xuất kho: 18/03/2025</t>
+  </si>
+  <si>
+    <t>Xuất kho: 24/02/2025</t>
+  </si>
+  <si>
+    <t>Full phụ kiện</t>
+  </si>
+  <si>
+    <t>Camera không chụp được ảnh (xác nhận từ hỗ trợ kĩ thuật)</t>
+  </si>
+  <si>
+    <t>Lỗi nguồn</t>
+  </si>
+  <si>
+    <t>Đổi bảo hành thiết bị mới</t>
+  </si>
+  <si>
+    <t>Phần cứng</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hà Nội, ngày 07 tháng 05 Năm 2025</t>
+  </si>
+  <si>
+    <t>Người đại diện: Đại lý anh Tuấn Bắc Giang</t>
+  </si>
+  <si>
+    <t>Đặng Ngọc Mai</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="@*."/>
   </numFmts>
@@ -206,64 +222,62 @@
       <family val="1"/>
     </font>
     <font>
-      <i/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,19 +321,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -417,6 +424,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -425,39 +445,33 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -466,146 +480,137 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -631,19 +636,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>91505</xdr:colOff>
+      <xdr:colOff>245370</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>132521</xdr:rowOff>
+      <xdr:rowOff>183173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>798635</xdr:colOff>
+      <xdr:colOff>681403</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>99391</xdr:rowOff>
+      <xdr:rowOff>40776</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -662,8 +673,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="91505" y="132521"/>
-          <a:ext cx="2069938" cy="640947"/>
+          <a:off x="245370" y="183173"/>
+          <a:ext cx="1798841" cy="531680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -676,9 +687,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -716,9 +727,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -753,7 +764,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -788,7 +799,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -961,370 +972,401 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M63"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="7" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="6" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="11" style="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13" style="1" customWidth="1"/>
-    <col min="7" max="7" width="24.140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" style="13" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="12" customWidth="1"/>
     <col min="10" max="12" width="9.140625" style="1"/>
     <col min="13" max="13" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="18" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="40"/>
-      <c r="B1" s="41"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="42"/>
+    <row r="1" spans="1:13" s="14" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="53"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="45"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="53"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="45"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="46" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="48"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="58"/>
     </row>
     <row r="6" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
+      <c r="A6" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="60" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+      <c r="A7" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
     </row>
     <row r="8" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
+      <c r="A8" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
       <c r="M8" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
       <c r="L9" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="62"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+    <row r="10" spans="1:13" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="21" t="s">
+      <c r="E11" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="21" t="s">
+      <c r="F11" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="21" t="s">
+      <c r="G11" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="50" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
+    <row r="12" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="39">
         <v>1</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="39">
+        <v>2</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="41" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+    </row>
+    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="31"/>
-      <c r="G12" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="I12" s="33" t="s">
+      <c r="I16" s="44"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="46"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="11"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="E22" s="43" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="I15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="H16" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="38"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="17"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" s="36"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="36"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-    </row>
-    <row r="63" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="42"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+    </row>
+    <row r="64" ht="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A10:I10"/>
+  <mergeCells count="21">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:I3"/>
     <mergeCell ref="D4:I4"/>
     <mergeCell ref="A5:I5"/>
     <mergeCell ref="A1:C4"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:I10"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="1.5" bottom="1" header="0.43307086614173201" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -1333,7 +1375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1345,7 +1387,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
